--- a/machine_scripts/ITF Requirements.xlsx
+++ b/machine_scripts/ITF Requirements.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ITF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\newest_machine_program\machine_scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10824"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10823"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,12 +108,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -142,7 +149,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -158,7 +165,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -422,18 +429,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="129.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" customWidth="1"/>
-    <col min="5" max="5" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.59765625" customWidth="1"/>
+    <col min="2" max="2" width="169.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.86328125" customWidth="1"/>
+    <col min="5" max="5" width="37.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.53125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -698,6 +705,7 @@
       <c r="A16" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
